--- a/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v4.xlsx
+++ b/application/controllers/excel-templates/Vendor_Settlement_Template-Cash-v4.xlsx
@@ -95,7 +95,7 @@
     <t>{invoice:additional_charge}</t>
   </si>
   <si>
-    <t>{meta:misc_charge}</t>
+    <t>{invoice:misc_charge}</t>
   </si>
   <si>
     <t>TOTAL (Including tax)</t>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -419,6 +419,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -795,7 +798,7 @@
       <c r="C21" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="31">
         <v>14.0</v>
       </c>
       <c r="E21" s="7"/>
@@ -805,7 +808,7 @@
       <c r="I21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -820,9 +823,9 @@
       <c r="G22" s="26"/>
       <c r="H22" s="7"/>
       <c r="I22" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="31"/>
+        <v>32</v>
+      </c>
+      <c r="J22" s="32"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
@@ -839,7 +842,7 @@
       <c r="I23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="31"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
@@ -858,35 +861,35 @@
     </row>
     <row r="25">
       <c r="B25" s="7"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="34"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26">
       <c r="B26" s="7"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="36" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="37"/>
+      <c r="J26" s="38"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
@@ -935,20 +938,20 @@
     </row>
     <row r="30">
       <c r="B30" s="7"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
     <row r="31">
       <c r="B31" s="7"/>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="42" t="s">
         <v>37</v>
       </c>
       <c r="K31" s="15"/>
